--- a/trial.xlsx
+++ b/trial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaboldetti/Documents/GitHub/My_first_Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1965C110-CCDA-6645-B994-1B7D2B005F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D2E7EE-BC68-7D47-BA5A-CD005305BD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,41 +18,30 @@
     <sheet name="Trial2" sheetId="3" r:id="rId3"/>
     <sheet name="Trial3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>1</t>
+    <t>mass</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
+    <t>force</t>
   </si>
 </sst>
 </file>
@@ -101,7 +90,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -115,28 +108,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90C03471-BDFD-484A-9531-AD6B590402B7}" name="Table1" displayName="Table1" ref="D4:H13" totalsRowShown="0">
-  <autoFilter ref="D4:H13" xr:uid="{90C03471-BDFD-484A-9531-AD6B590402B7}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2A7307D8-6D61-6C48-8B10-8F83D035E1ED}" name="1"/>
-    <tableColumn id="2" xr3:uid="{1957F805-3A24-584C-A153-C9A7B7369D8D}" name="2"/>
-    <tableColumn id="3" xr3:uid="{3A8C9949-7BD7-5F4A-B77A-F197FA275722}" name="3"/>
-    <tableColumn id="4" xr3:uid="{B1D5D0DF-AA48-FF4C-A28B-3FB809F7B772}" name="4"/>
-    <tableColumn id="5" xr3:uid="{D0A3345F-C92E-2246-B336-F264D72A1762}" name="5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E4466627-C3C0-E145-924A-1E722ED75574}" name="Table13" displayName="Table13" ref="L13:P22" totalsRowShown="0">
-  <autoFilter ref="L13:P22" xr:uid="{E4466627-C3C0-E145-924A-1E722ED75574}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2F017377-F875-5F41-9D3E-164D15D95C09}" name="a"/>
-    <tableColumn id="2" xr3:uid="{22456881-EA84-0341-B03E-0683E738AE2C}" name="b"/>
-    <tableColumn id="3" xr3:uid="{615F4C99-AA0B-0849-B95A-5451CA59F432}" name="c"/>
-    <tableColumn id="4" xr3:uid="{E849D787-2D84-9B45-A964-2CE77BC2AD86}" name="d"/>
-    <tableColumn id="5" xr3:uid="{5FBA8ECF-E105-5047-B134-635D0715C071}" name="e"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1C387A2-E8C9-6F45-AE9B-5F1E2727D59B}" name="Table1" displayName="Table1" ref="E4:F20" totalsRowShown="0">
+  <autoFilter ref="E4:F20" xr:uid="{B1C387A2-E8C9-6F45-AE9B-5F1E2727D59B}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{4D47557C-DE09-6049-8C4D-E529AB3483AD}" name="mass"/>
+    <tableColumn id="2" xr3:uid="{61E592B0-CB76-3245-87CE-6CF1C99C9181}" name="force" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[mass]]*9.81</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -427,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -438,354 +416,167 @@
     <col min="4" max="11" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f>Table1[[#This Row],[mass]]*9.81</f>
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F6">
+        <f>Table1[[#This Row],[mass]]*9.81</f>
+        <v>19.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F7">
+        <f>Table1[[#This Row],[mass]]*9.81</f>
+        <v>29.43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
+      <c r="F8">
+        <f>Table1[[#This Row],[mass]]*9.81</f>
+        <v>39.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F9">
+        <f>Table1[[#This Row],[mass]]*9.81</f>
+        <v>49.050000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F10">
+        <f>Table1[[#This Row],[mass]]*9.81</f>
+        <v>58.86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E11">
         <v>7</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F11">
+        <f>Table1[[#This Row],[mass]]*9.81</f>
+        <v>68.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E12">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
+      <c r="F12">
+        <f>Table1[[#This Row],[mass]]*9.81</f>
+        <v>78.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" t="s">
-        <v>7</v>
-      </c>
-      <c r="O13" t="s">
-        <v>8</v>
-      </c>
-      <c r="P13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-      <c r="N14">
-        <v>3</v>
-      </c>
-      <c r="O14">
-        <v>4</v>
-      </c>
-      <c r="P14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
-      <c r="N15">
-        <v>3</v>
-      </c>
-      <c r="O15">
-        <v>4</v>
-      </c>
-      <c r="P15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2</v>
-      </c>
-      <c r="N16">
-        <v>3</v>
-      </c>
-      <c r="O16">
-        <v>4</v>
-      </c>
-      <c r="P16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="12:16" x14ac:dyDescent="0.2">
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>2</v>
-      </c>
-      <c r="N17">
-        <v>3</v>
-      </c>
-      <c r="O17">
-        <v>4</v>
-      </c>
-      <c r="P17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="12:16" x14ac:dyDescent="0.2">
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
-      <c r="N18">
-        <v>3</v>
-      </c>
-      <c r="O18">
-        <v>4</v>
-      </c>
-      <c r="P18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="12:16" x14ac:dyDescent="0.2">
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>2</v>
-      </c>
-      <c r="N19">
-        <v>3</v>
-      </c>
-      <c r="O19">
-        <v>4</v>
-      </c>
-      <c r="P19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="12:16" x14ac:dyDescent="0.2">
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20">
-        <v>3</v>
-      </c>
-      <c r="O20">
-        <v>4</v>
-      </c>
-      <c r="P20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="12:16" x14ac:dyDescent="0.2">
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="N21">
-        <v>3</v>
-      </c>
-      <c r="O21">
-        <v>4</v>
-      </c>
-      <c r="P21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="12:16" x14ac:dyDescent="0.2">
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>2</v>
-      </c>
-      <c r="N22">
-        <v>3</v>
-      </c>
-      <c r="O22">
-        <v>4</v>
-      </c>
-      <c r="P22">
-        <v>5</v>
+      <c r="F13">
+        <f>Table1[[#This Row],[mass]]*9.81</f>
+        <v>88.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <f>Table1[[#This Row],[mass]]*9.81</f>
+        <v>98.100000000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <f>Table1[[#This Row],[mass]]*9.81</f>
+        <v>107.91000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <f>Table1[[#This Row],[mass]]*9.81</f>
+        <v>117.72</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <f>Table1[[#This Row],[mass]]*9.81</f>
+        <v>127.53</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <f>Table1[[#This Row],[mass]]*9.81</f>
+        <v>137.34</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <f>Table1[[#This Row],[mass]]*9.81</f>
+        <v>147.15</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <f>Table1[[#This Row],[mass]]*9.81</f>
+        <v>156.96</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/trial.xlsx
+++ b/trial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaboldetti/Documents/GitHub/My_first_Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D2E7EE-BC68-7D47-BA5A-CD005305BD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE6CF27-0386-9247-8BDE-6CBA8379697E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,8 +434,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <f>Table1[[#This Row],[mass]]*9.81</f>
-        <v>9.81</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -443,8 +442,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <f>Table1[[#This Row],[mass]]*9.81</f>
-        <v>19.62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -452,8 +450,7 @@
         <v>3</v>
       </c>
       <c r="F7">
-        <f>Table1[[#This Row],[mass]]*9.81</f>
-        <v>29.43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -461,8 +458,7 @@
         <v>4</v>
       </c>
       <c r="F8">
-        <f>Table1[[#This Row],[mass]]*9.81</f>
-        <v>39.24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -470,8 +466,7 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <f>Table1[[#This Row],[mass]]*9.81</f>
-        <v>49.050000000000004</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -479,8 +474,7 @@
         <v>6</v>
       </c>
       <c r="F10">
-        <f>Table1[[#This Row],[mass]]*9.81</f>
-        <v>58.86</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -488,8 +482,7 @@
         <v>7</v>
       </c>
       <c r="F11">
-        <f>Table1[[#This Row],[mass]]*9.81</f>
-        <v>68.67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -497,8 +490,7 @@
         <v>8</v>
       </c>
       <c r="F12">
-        <f>Table1[[#This Row],[mass]]*9.81</f>
-        <v>78.48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -506,8 +498,7 @@
         <v>9</v>
       </c>
       <c r="F13">
-        <f>Table1[[#This Row],[mass]]*9.81</f>
-        <v>88.29</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -515,8 +506,7 @@
         <v>10</v>
       </c>
       <c r="F14">
-        <f>Table1[[#This Row],[mass]]*9.81</f>
-        <v>98.100000000000009</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -524,8 +514,7 @@
         <v>11</v>
       </c>
       <c r="F15">
-        <f>Table1[[#This Row],[mass]]*9.81</f>
-        <v>107.91000000000001</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -533,8 +522,7 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <f>Table1[[#This Row],[mass]]*9.81</f>
-        <v>117.72</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.2">
@@ -542,8 +530,7 @@
         <v>13</v>
       </c>
       <c r="F17">
-        <f>Table1[[#This Row],[mass]]*9.81</f>
-        <v>127.53</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.2">
@@ -551,8 +538,7 @@
         <v>14</v>
       </c>
       <c r="F18">
-        <f>Table1[[#This Row],[mass]]*9.81</f>
-        <v>137.34</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.2">
@@ -560,8 +546,7 @@
         <v>15</v>
       </c>
       <c r="F19">
-        <f>Table1[[#This Row],[mass]]*9.81</f>
-        <v>147.15</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.2">
@@ -569,8 +554,7 @@
         <v>16</v>
       </c>
       <c r="F20">
-        <f>Table1[[#This Row],[mass]]*9.81</f>
-        <v>156.96</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/trial.xlsx
+++ b/trial.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trial0" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -52,13 +52,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -139,6 +145,20 @@
     <tableColumn id="2" name="force"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="J5:L20" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="J5:L20"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Raggio[m]"/>
+    <tableColumn id="2" name="massa[g]" dataDxfId="0">
+      <calculatedColumnFormula>RADIANS(H6)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="err."/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -431,15 +451,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="10.5" customWidth="1" min="4" max="11"/>
+    <col width="10.5" customWidth="1" min="4" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -466,6 +486,21 @@
       <c r="F5" t="n">
         <v>9.800000000000001</v>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Raggio[m]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>massa[g]</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>err.</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="E6" t="n">
@@ -474,6 +509,19 @@
       <c r="F6" t="n">
         <v>19</v>
       </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f>RADIANS(H6)</f>
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="E7" t="n">
@@ -482,6 +530,19 @@
       <c r="F7" t="n">
         <v>29</v>
       </c>
+      <c r="H7" t="n">
+        <v>13</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <f>RADIANS(H7)</f>
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="E8" t="n">
@@ -490,6 +551,19 @@
       <c r="F8" t="n">
         <v>36</v>
       </c>
+      <c r="H8" t="n">
+        <v>14</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <f>RADIANS(H8)</f>
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="E9" t="n">
@@ -498,6 +572,19 @@
       <c r="F9" t="n">
         <v>38</v>
       </c>
+      <c r="H9" t="n">
+        <v>17</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <f>RADIANS(H9)</f>
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="E10" t="n">
@@ -506,6 +593,19 @@
       <c r="F10" t="n">
         <v>48</v>
       </c>
+      <c r="H10" t="n">
+        <v>20</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <f>RADIANS(H10)</f>
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="E11" t="n">
@@ -514,6 +614,19 @@
       <c r="F11" t="n">
         <v>58</v>
       </c>
+      <c r="H11" t="n">
+        <v>24</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <f>RADIANS(H11)</f>
+        <v/>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="E12" t="n">
@@ -522,6 +635,19 @@
       <c r="F12" t="n">
         <v>56</v>
       </c>
+      <c r="H12" t="n">
+        <v>27</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <f>RADIANS(H12)</f>
+        <v/>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="E13" t="n">
@@ -530,6 +656,19 @@
       <c r="F13" t="n">
         <v>78</v>
       </c>
+      <c r="H13" t="n">
+        <v>30</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <f>RADIANS(H13)</f>
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="E14" t="n">
@@ -538,6 +677,19 @@
       <c r="F14" t="n">
         <v>79</v>
       </c>
+      <c r="H14" t="n">
+        <v>33</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <f>RADIANS(H14)</f>
+        <v/>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="E15" t="n">
@@ -546,6 +698,19 @@
       <c r="F15" t="n">
         <v>90</v>
       </c>
+      <c r="H15" t="n">
+        <v>35</v>
+      </c>
+      <c r="J15" t="n">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <f>RADIANS(H15)</f>
+        <v/>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="E16" t="n">
@@ -554,6 +719,19 @@
       <c r="F16" t="n">
         <v>110</v>
       </c>
+      <c r="H16" t="n">
+        <v>38</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <f>RADIANS(H16)</f>
+        <v/>
+      </c>
+      <c r="L16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="E17" t="n">
@@ -562,6 +740,19 @@
       <c r="F17" t="n">
         <v>130</v>
       </c>
+      <c r="H17" t="n">
+        <v>41</v>
+      </c>
+      <c r="J17" t="n">
+        <v>12</v>
+      </c>
+      <c r="K17">
+        <f>RADIANS(H17)</f>
+        <v/>
+      </c>
+      <c r="L17" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="E18" t="n">
@@ -570,6 +761,19 @@
       <c r="F18" t="n">
         <v>140</v>
       </c>
+      <c r="H18" t="n">
+        <v>44</v>
+      </c>
+      <c r="J18" t="n">
+        <v>13</v>
+      </c>
+      <c r="K18">
+        <f>RADIANS(H18)</f>
+        <v/>
+      </c>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="E19" t="n">
@@ -578,6 +782,19 @@
       <c r="F19" t="n">
         <v>145</v>
       </c>
+      <c r="H19" t="n">
+        <v>47</v>
+      </c>
+      <c r="J19" t="n">
+        <v>14</v>
+      </c>
+      <c r="K19">
+        <f>RADIANS(H19)</f>
+        <v/>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="E20" t="n">
@@ -586,6 +803,19 @@
       <c r="F20" t="n">
         <v>155</v>
       </c>
+      <c r="H20" t="n">
+        <v>50</v>
+      </c>
+      <c r="J20" t="n">
+        <v>15</v>
+      </c>
+      <c r="K20">
+        <f>RADIANS(H20)</f>
+        <v/>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="E23" t="inlineStr">
@@ -594,7 +824,15 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>104.418</v>
+        <v>234.94</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>chi:</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>54.097</v>
       </c>
     </row>
     <row r="24">
@@ -605,7 +843,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>9.826+0.163</t>
+          <t>9.826 + 0.108</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>A :</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>9.963 + 0.092</t>
         </is>
       </c>
     </row>
@@ -617,15 +865,36 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-7.225+1.573</t>
-        </is>
+          <t>-7.225 + 1.049</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>B:</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2.662 + 0.637</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Covarianza:</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0.222</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/trial.xlsx
+++ b/trial.xlsx
@@ -457,7 +457,7 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="10.5" customWidth="1" min="4" max="12"/>
   </cols>
@@ -515,9 +515,8 @@
       <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="K6">
-        <f>RADIANS(H6)</f>
-        <v/>
+      <c r="K6" t="n">
+        <v>0.1919862177193762</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -536,9 +535,8 @@
       <c r="J7" t="n">
         <v>2</v>
       </c>
-      <c r="K7">
-        <f>RADIANS(H7)</f>
-        <v/>
+      <c r="K7" t="n">
+        <v>0.2268928027592629</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -557,9 +555,8 @@
       <c r="J8" t="n">
         <v>3</v>
       </c>
-      <c r="K8">
-        <f>RADIANS(H8)</f>
-        <v/>
+      <c r="K8" t="n">
+        <v>0.2443460952792061</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -578,9 +575,8 @@
       <c r="J9" t="n">
         <v>4</v>
       </c>
-      <c r="K9">
-        <f>RADIANS(H9)</f>
-        <v/>
+      <c r="K9" t="n">
+        <v>0.296705972839036</v>
       </c>
       <c r="L9" t="n">
         <v>2</v>
@@ -599,9 +595,8 @@
       <c r="J10" t="n">
         <v>5</v>
       </c>
-      <c r="K10">
-        <f>RADIANS(H10)</f>
-        <v/>
+      <c r="K10" t="n">
+        <v>0.3490658503988659</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -620,9 +615,8 @@
       <c r="J11" t="n">
         <v>6</v>
       </c>
-      <c r="K11">
-        <f>RADIANS(H11)</f>
-        <v/>
+      <c r="K11" t="n">
+        <v>0.4188790204786391</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
@@ -641,9 +635,8 @@
       <c r="J12" t="n">
         <v>7</v>
       </c>
-      <c r="K12">
-        <f>RADIANS(H12)</f>
-        <v/>
+      <c r="K12" t="n">
+        <v>0.471238898038469</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -662,9 +655,8 @@
       <c r="J13" t="n">
         <v>8</v>
       </c>
-      <c r="K13">
-        <f>RADIANS(H13)</f>
-        <v/>
+      <c r="K13" t="n">
+        <v>0.5235987755982988</v>
       </c>
       <c r="L13" t="n">
         <v>3</v>
@@ -683,9 +675,8 @@
       <c r="J14" t="n">
         <v>9</v>
       </c>
-      <c r="K14">
-        <f>RADIANS(H14)</f>
-        <v/>
+      <c r="K14" t="n">
+        <v>0.5759586531581288</v>
       </c>
       <c r="L14" t="n">
         <v>2</v>
@@ -704,9 +695,8 @@
       <c r="J15" t="n">
         <v>10</v>
       </c>
-      <c r="K15">
-        <f>RADIANS(H15)</f>
-        <v/>
+      <c r="K15" t="n">
+        <v>0.6108652381980153</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
@@ -725,9 +715,8 @@
       <c r="J16" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="K16">
-        <f>RADIANS(H16)</f>
-        <v/>
+      <c r="K16" t="n">
+        <v>0.6632251157578453</v>
       </c>
       <c r="L16" t="n">
         <v>3</v>
@@ -746,9 +735,8 @@
       <c r="J17" t="n">
         <v>12</v>
       </c>
-      <c r="K17">
-        <f>RADIANS(H17)</f>
-        <v/>
+      <c r="K17" t="n">
+        <v>0.7155849933176751</v>
       </c>
       <c r="L17" t="n">
         <v>4</v>
@@ -767,9 +755,8 @@
       <c r="J18" t="n">
         <v>13</v>
       </c>
-      <c r="K18">
-        <f>RADIANS(H18)</f>
-        <v/>
+      <c r="K18" t="n">
+        <v>0.767944870877505</v>
       </c>
       <c r="L18" t="n">
         <v>3</v>
@@ -788,9 +775,8 @@
       <c r="J19" t="n">
         <v>14</v>
       </c>
-      <c r="K19">
-        <f>RADIANS(H19)</f>
-        <v/>
+      <c r="K19" t="n">
+        <v>0.8203047484373349</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -809,9 +795,8 @@
       <c r="J20" t="n">
         <v>15</v>
       </c>
-      <c r="K20">
-        <f>RADIANS(H20)</f>
-        <v/>
+      <c r="K20" t="n">
+        <v>0.8726646259971648</v>
       </c>
       <c r="L20" t="n">
         <v>2</v>
@@ -832,7 +817,7 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>54.097</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="24">
@@ -853,7 +838,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>9.963 + 0.092</t>
+          <t>0.049 + 0.092</t>
         </is>
       </c>
     </row>
@@ -875,7 +860,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2.662 + 0.637</t>
+          <t>0.119 + 0.637</t>
         </is>
       </c>
     </row>

--- a/trial.xlsx
+++ b/trial.xlsx
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>234.94</v>
+        <v>939.7619999999999</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>9.826 + 0.108</t>
+          <t>9.826 + 0.054</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-7.225 + 1.049</t>
+          <t>-7.225 + 0.524</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
